--- a/team_ability_promotion_task schedule.xlsx
+++ b/team_ability_promotion_task schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="8970" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Android任务计划" sheetId="1" r:id="rId1"/>
@@ -104,11 +104,6 @@
   <si>
     <t>1、单元测试与UI自动化测试
 2、学习Google官方给出的MVP架构样例程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、掌握单元测试与UI自动化测试
-2、结合Google官方给出的MVP架构程序，掌握MVP实现与熟悉样例中的单元测试与UI自动化测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -179,6 +174,12 @@
   <si>
     <t>1、学习GitHub
 2、学习MarkDown文档编写规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、掌握单元测试与UI自动化测试
+2、结合Google官方给出的MVP架构程序，掌握MVP实现与熟悉样例中的单元测试与UI自动化测试
+https://github.com/googlesamples/android-architecture</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,9 +607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -646,10 +647,10 @@
         <v>33</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>14</v>
@@ -659,13 +660,13 @@
     </row>
     <row r="3" spans="1:6" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>14</v>
@@ -916,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -955,10 +956,10 @@
         <v>33</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
@@ -971,7 +972,7 @@
     </row>
     <row r="3" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>16</v>
@@ -987,7 +988,7 @@
     </row>
     <row r="4" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>15</v>

--- a/team_ability_promotion_task schedule.xlsx
+++ b/team_ability_promotion_task schedule.xlsx
@@ -79,13 +79,6 @@
     <t>陈卿强
 吴增乡
 陈俊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、单元测试与UI自动化测试</t>
-  </si>
-  <si>
-    <t>1、Swift开发学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -180,6 +173,14 @@
     <t>1、掌握单元测试与UI自动化测试
 2、结合Google官方给出的MVP架构程序，掌握MVP实现与熟悉样例中的单元测试与UI自动化测试
 https://github.com/googlesamples/android-architecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Swift开发学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、单元测试与UI自动化测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,8 +609,8 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -647,10 +648,10 @@
         <v>33</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>14</v>
@@ -660,13 +661,13 @@
     </row>
     <row r="3" spans="1:6" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>14</v>
@@ -918,7 +919,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -939,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -956,10 +957,10 @@
         <v>33</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
@@ -972,13 +973,13 @@
     </row>
     <row r="3" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>13</v>
@@ -988,13 +989,13 @@
     </row>
     <row r="4" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
